--- a/Documents/.NET Core with Azure CAMP Batch 24-Jan-22 NCA-3_Day wise planner.xlsx
+++ b/Documents/.NET Core with Azure CAMP Batch 24-Jan-22 NCA-3_Day wise planner.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svdsk25\Desktop\Training_demos\Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CF55AF-35FA-46C4-AE58-AE4511895E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="320" windowWidth="18820" windowHeight="8310"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -132,7 +138,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -345,6 +351,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -392,7 +401,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -425,9 +434,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -460,6 +486,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -635,22 +678,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E38"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C15" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="93.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" customWidth="1"/>
-    <col min="5" max="5" width="10.7265625" customWidth="1"/>
+    <col min="1" max="1" width="93.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -665,7 +708,7 @@
       </c>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -682,7 +725,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
@@ -699,7 +742,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
@@ -714,7 +757,7 @@
       </c>
       <c r="E4" s="12"/>
     </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>6</v>
       </c>
@@ -729,7 +772,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>8</v>
       </c>
@@ -744,7 +787,7 @@
       </c>
       <c r="E6" s="19"/>
     </row>
-    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>9</v>
       </c>
@@ -759,7 +802,7 @@
       </c>
       <c r="E7" s="19"/>
     </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -774,7 +817,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>12</v>
       </c>
@@ -789,7 +832,7 @@
       </c>
       <c r="E9" s="12"/>
     </row>
-    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>13</v>
       </c>
@@ -806,7 +849,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>14</v>
       </c>
@@ -823,7 +866,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>16</v>
       </c>
@@ -838,7 +881,7 @@
       </c>
       <c r="E12" s="12"/>
     </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>6</v>
       </c>
@@ -853,7 +896,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>17</v>
       </c>
@@ -868,7 +911,7 @@
       </c>
       <c r="E14" s="12"/>
     </row>
-    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>18</v>
       </c>
@@ -883,7 +926,7 @@
       </c>
       <c r="E15" s="12"/>
     </row>
-    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>19</v>
       </c>
@@ -898,7 +941,7 @@
       </c>
       <c r="E16" s="12"/>
     </row>
-    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
         <v>20</v>
       </c>
@@ -915,7 +958,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>21</v>
       </c>
@@ -930,7 +973,7 @@
       </c>
       <c r="E18" s="12"/>
     </row>
-    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
         <v>13</v>
       </c>
@@ -945,7 +988,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>22</v>
       </c>
@@ -962,7 +1005,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>23</v>
       </c>
@@ -977,7 +1020,7 @@
       </c>
       <c r="E21" s="12"/>
     </row>
-    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="28" t="s">
         <v>24</v>
       </c>
@@ -992,7 +1035,7 @@
       </c>
       <c r="E22" s="12"/>
     </row>
-    <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="31" t="s">
         <v>6</v>
       </c>
@@ -1007,7 +1050,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>25</v>
       </c>
@@ -1022,7 +1065,7 @@
       </c>
       <c r="E24" s="12"/>
     </row>
-    <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
         <v>13</v>
       </c>
@@ -1037,7 +1080,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>26</v>
       </c>
@@ -1054,7 +1097,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>28</v>
       </c>
@@ -1069,7 +1112,7 @@
       </c>
       <c r="E27" s="12"/>
     </row>
-    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
         <v>6</v>
       </c>
@@ -1084,7 +1127,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>29</v>
       </c>
@@ -1099,7 +1142,7 @@
       </c>
       <c r="E29" s="12"/>
     </row>
-    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>30</v>
       </c>
@@ -1114,7 +1157,7 @@
       </c>
       <c r="E30" s="12"/>
     </row>
-    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
         <v>6</v>
       </c>
@@ -1129,7 +1172,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
         <v>31</v>
       </c>
@@ -1144,7 +1187,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>32</v>
       </c>
@@ -1159,7 +1202,7 @@
       </c>
       <c r="E33" s="12"/>
     </row>
-    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>33</v>
       </c>
@@ -1174,7 +1217,7 @@
       </c>
       <c r="E34" s="12"/>
     </row>
-    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
         <v>13</v>
       </c>
@@ -1189,7 +1232,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="28" t="s">
         <v>34</v>
       </c>
@@ -1204,7 +1247,7 @@
       </c>
       <c r="E36" s="12"/>
     </row>
-    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>35</v>
       </c>
@@ -1219,7 +1262,7 @@
       </c>
       <c r="E37" s="12"/>
     </row>
-    <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="21" t="s">
         <v>36</v>
       </c>
@@ -1242,24 +1285,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documents/.NET Core with Azure CAMP Batch 24-Jan-22 NCA-3_Day wise planner.xlsx
+++ b/Documents/.NET Core with Azure CAMP Batch 24-Jan-22 NCA-3_Day wise planner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svdsk25\Desktop\Training_demos\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CF55AF-35FA-46C4-AE58-AE4511895E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7B6C72-4D45-4501-95BC-6D92AEAF012D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,17 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -679,10 +689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C15" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,7 +703,7 @@
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -708,7 +718,7 @@
       </c>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -725,7 +735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
@@ -741,8 +751,11 @@
       <c r="E3" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
@@ -756,8 +769,11 @@
         <v>44599</v>
       </c>
       <c r="E4" s="12"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>6</v>
       </c>
@@ -771,8 +787,11 @@
       <c r="E5" s="14" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>8</v>
       </c>
@@ -786,8 +805,11 @@
         <v>44602</v>
       </c>
       <c r="E6" s="19"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>9</v>
       </c>
@@ -801,8 +823,11 @@
         <v>44603</v>
       </c>
       <c r="E7" s="19"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -816,8 +841,11 @@
       <c r="E8" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>12</v>
       </c>
@@ -831,8 +859,11 @@
         <v>44606</v>
       </c>
       <c r="E9" s="12"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>13</v>
       </c>
@@ -848,8 +879,11 @@
       <c r="E10" s="14" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>14</v>
       </c>
@@ -865,8 +899,11 @@
       <c r="E11" s="12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>16</v>
       </c>
@@ -880,8 +917,11 @@
         <v>44610</v>
       </c>
       <c r="E12" s="12"/>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>6</v>
       </c>
@@ -895,8 +935,11 @@
       <c r="E13" s="14" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>17</v>
       </c>
@@ -910,8 +953,11 @@
         <v>44613</v>
       </c>
       <c r="E14" s="12"/>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>18</v>
       </c>
@@ -925,8 +971,11 @@
         <v>44615</v>
       </c>
       <c r="E15" s="12"/>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>19</v>
       </c>
@@ -940,6 +989,10 @@
         <v>44620</v>
       </c>
       <c r="E16" s="12"/>
+      <c r="G16">
+        <f>SUM(G3:G15)</f>
+        <v>30</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
